--- a/Pathfinder Data.xlsx
+++ b/Pathfinder Data.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advait/Desktop/NTU/bc3412/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A0EAD-A44F-8D45-9362-5ED4E7BFFFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="README" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Metadata_Glossary" sheetId="3" r:id="rId6"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
+    <sheet name="Metadata_Glossary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="223">
   <si>
     <t>Last_updated</t>
   </si>
@@ -133,9 +142,6 @@
   </si>
   <si>
     <t>GHG_emissions_year</t>
-  </si>
-  <si>
-    <t>2024-09-04 11:27:54</t>
   </si>
   <si>
     <t>BP</t>
@@ -209,9 +215,6 @@
     <t>Fossil Fuels</t>
   </si>
   <si>
-    <t>2024-09-04 11:28:08</t>
-  </si>
-  <si>
     <t>Exxon Mobil</t>
   </si>
   <si>
@@ -219,10 +222,6 @@
   </si>
   <si>
     <t>North America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'we aim to achieve net-zero operated Scope 1 and 2 greenhouse gas emissions by 2050.'  (p.5)
-</t>
   </si>
   <si>
     <t>Emissions intensity target</t>
@@ -618,46 +617,183 @@
   <si>
     <t>Description of other interim target.</t>
   </si>
+  <si>
+    <t>Saudi Aramco</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>Western and Central Asia</t>
+  </si>
+  <si>
+    <t>Declaration / pledge</t>
+  </si>
+  <si>
+    <t>The Saudi Arabian Oil Company (“Aramco” or “the Company”) today announced its ambition to achieve net-zero Scope 1 and Scope 2 greenhouse gas emissions across its wholly-owned operated assets by 2050.</t>
+  </si>
+  <si>
+    <t>15% reduction of Scope 1 and Scope 2 upstream carbon intensity emissions by 2035
+GHG emissions We are aiming to abate 52 MMtCO2 e per annum by 2035 from our wholly-owned operated assets compared to our business-as-usual 2035 forecast emissions.</t>
+  </si>
+  <si>
+    <t>Saudi Basic Industries Corp., Aramco’s chemicals subsidiary, said at the same conference it would explore ways to be carbon neutral by 2050. Its CEO, Yousef al-Benyan, said he would cut greenhouse gas emissions by 30% by 2030.
+Renewables: Aramco has a target to invest in up to 12 GW of solar and wind energy by 2030,</t>
+  </si>
+  <si>
+    <t>Measures for all emission scopes that are covered by the target, Information on the emission reductions expected from these measures within a certain time period, Information on the extent to which measures will be applied (e.g. if switching to EVs, what share of the fleet; if installing an own solar PV installation, what is the installed capacity)</t>
+  </si>
+  <si>
+    <t>As part of its plan, Saudi Aramco will make huge investments in gas over the next decade, Nasser said. That will help reduce the amount of crude it burns domestically. “We’re confident that technology will get us to achieve our net-zero goal,” Nasser said. “What we need is an ordinary transition where we take into consideration reliability and energy security for the world.”
+We’re looking at better fuel formulation, carbon capture, blue hydrogen, all of these things that will contribute to Scope 3.”
+Goal of 44 MMtpa of CCUS by 2035.
+Pg 98 (https://www.aramco.com/-/media/publications/corporate-reports/sustainability-reports/report-2023/english/2023-saudi-aramco-sustainability-report-full-en.pdf)
+"Executive remuneration
+Senior executive remuneration is linked to the Company’s sustainability performance, featuring a framework that incorporates fixed and variable components. The variable remuneration aligns with the market and is contingent upon meeting predefined performance goals, including sustainability metrics such as GHG emissions intensity, flaring, and safety.
+Two distinct variable pay plans are employed: the Short-Term Incentive Plan (STIP), an annual cashbased initiative rewarding performance in financial, operational, safety, and sustainability areas, and the Long-Term Incentive Plan (LTIP), designed to recognize key financial, strategic, and environmental/ sustainability achievements over a three-year period."</t>
+  </si>
+  <si>
+    <t>Avoid biodiversity harm, Must be high environmental integrity</t>
+  </si>
+  <si>
+    <t>Implication that they will use CCS to make blue hydrogen: Aramco also has ambitions in renewable sources of energy like solar, wind and hydrogen. Green hydrogen is produced using renewable power in a process with no emissions. Making blue hydrogen requires natural gas, with the carbon captured and stored. “We’re confident that technology will get us to achieve our net-zero goal,” Nasser said. 
+We plan to store up to 14 MMtpa by 2035 – contributing towards the Kingdom reaching its goal of 44 MMtpa of CCUS by 2035.
+"To be effective, they should cover all emitting sectors and all types of GHG emissions, recognize carbon intensity differentiation, equity, and revenue neutrality, as well as transferability of potential credits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'we aim to achieve net-zero operated Scope 1 and 2 greenhouse gas emissions by 2050.' (p.5)
+</t>
+  </si>
+  <si>
+    <t>PetroChina Co</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>East Asia</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>'setting a low-carbon goal of endeavoring to achieve “near-zero” emissions by around 2050'</t>
+  </si>
+  <si>
+    <t>'Reduce methane emission intensity by 50% as compared to 2019, to 0.25% in 2025'
+'Reduce methane emission intensity by 20% as compared to 2025, to 0.20% in 2035'
+Intensity is emissions per unit of production of oil and gas</t>
+  </si>
+  <si>
+    <t>From the 2022 ESG Report: Carbon Emission Management 
+'We set up a GHG inspection and accounting mechanism and founded the GHG Inspection and Accounting Center; we account for GHG emission data on a quarterly basis and conduct GHG inspections regularly. We also actively implement methane control measures to reduce methane emissions.'
+'In 2022, our domestic GHG emissions per unit of oil and gas production and our methane emission intensity recorded a year-on-year decrease of 4% and 11%, respectively'</t>
+  </si>
+  <si>
+    <t>Schedule for regular review of measures, Information on the extent to which measures will be applied (e.g. if switching to EVs, what share of the fleet; if installing an own solar PV installation, what is the installed capacity)</t>
+  </si>
+  <si>
+    <t>Annual ESG reports: http://www.petrochina.com.cn/ptr/shyhj/2021esgen.shtml
+Measured covered in plan outline in 2022 ESG report are not comprehensive and largely focus on CCSU and sinks.</t>
+  </si>
+  <si>
+    <t>From the 2022 ESG report:
+'Organizing active tree planting and reforestation activities to create carbon sinks and carbon neutral forests to provide forest carbon offsets'
+'Conducting comprehensive research on Carbon Capture and Storage / Carbon Capture, Utilization and Storage (“CCS/ CCUS”) and striving to promote the commercialisation of CCS/CCUS'
+'In 2022, our Company implemented several CCUS projects in Jilin, Daqing, and other oil fields.'</t>
+  </si>
+  <si>
+    <t>Chevron</t>
+  </si>
+  <si>
+    <t>"2050 net zero aspiration for equity upstream Scope 1 and 2 emissions"</t>
+  </si>
+  <si>
+    <t>"The target covers the full value chain, including Scope 3 emissions from the use of products. The company has set a greater than 5 percent carbon emissions intensity reduction target from 2016 levels by 2028."
+chevron UCI (scope 1 and 2) reduction targets for 2028: 
+24 kg CO2e/boe for oil (global industry averages 46) 40% reduction from 2016 
+24 kg CO2e/boe for gas (global industry averages 71) 26% reduction from 2016 
+2 kg CO2e/boe for methane and a global methane-detection campaign 53% reduction from 2016 
+0 routine flaring by 2030 and 3 kg CO2e/boe for overall flaring 66% reduction from 2016</t>
+  </si>
+  <si>
+    <t>The net zero target covers scope 1 and 2. The portfolio carbon intensity (PCI) target (and emission reporting compliant with TCFD) includes Scope 3. The PCI target only goes up to 2028. See page 38:
+https://www.chevron.com/-/media/chevron/sustainability/documents/2021-climate-change-resilience-report.pdf
+https://www.chevron.com/sustainability
+https://www.chevron.com/-/media/chevron/sustainability/documents/climate-change-resilience-report.pdf</t>
+  </si>
+  <si>
+    <t>Information on the emission reductions expected from these measures within a certain time period, Measures for all emission scopes that are covered by the target, Information on the extent to which measures will be applied (e.g. if switching to EVs, what share of the fleet; if installing an own solar PV installation, what is the installed capacity)</t>
+  </si>
+  <si>
+    <t>Plan is mostly an outline of possibilities for achieving the targets - https://www.chevron.com/-/media/chevron/sustainability/documents/2021-climate-change-resilience-report.pdf</t>
+  </si>
+  <si>
+    <t>Must be high environmental integrity</t>
+  </si>
+  <si>
+    <t>Yes (CCS-based removals e.g. BECCS, DACCS)</t>
+  </si>
+  <si>
+    <t>2023 report p67: "The following removals ( j) are included in the PCI methodology calculation: ... High-integrity offsets include nature-based solutions" Also mentions CCUS
+https://www.chevron.com/-/media/chevron/sustainability/documents/climate-change-resilience-report.pdf
+Target for 2030: 25 mmtpa carbon capture and offsets - https://www.chevron.com/-/media/chevron/sustainability/documents/2021-climate-change-resilience-report.pdf
+Chevron tends to achieve its target through its pivot towards low-carbon business, including renewables, carbon capture technology, and hydrogen - https://www.offshore-technology.com/news/chevron-net-zero-2050-operation-emmissions/
+In February 2022, Chevron announced its investment in Carbon Clean CO2 capture technology business that will "help deliver the necessary scaling up of carbon capture to achieve global net zero targets" - https://www.chevron.com/stories/chevron-announces-investment-in-carbon-clean-co2-capture-technology-business.
+Feb 2024 update for CCS:
+https://www.chevron.com/newsroom/2024/q2/chevron-invests-in-carbon-capture-and-removal-technology-company-ion-clean-energy
+ICE-31 liquid amine carbon capture technology for hard-to-abate emissions.
+CEO perspectives: AI and energy transition.
+https://www.chevron.com/newsroom/2024/q2/chevron-ceo-talks-ai-energy-transition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -665,7 +801,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -710,8 +846,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
-    <border/>
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
@@ -725,6 +867,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -739,6 +882,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -753,90 +897,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -851,6 +912,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -861,6 +923,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -873,277 +936,180 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Data-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Data-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AN3" displayName="Table1" name="Table1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AN6">
   <tableColumns count="40">
-    <tableColumn name="Last_updated" id="1"/>
-    <tableColumn name="Name" id="2"/>
-    <tableColumn name="Country" id="3"/>
-    <tableColumn name="Geographic_region" id="4"/>
-    <tableColumn name="End_target" id="5"/>
-    <tableColumn name="End_target_percentage_reduction" id="6"/>
-    <tableColumn name="End_target_baseline_year" id="7"/>
-    <tableColumn name="End_target_year" id="8"/>
-    <tableColumn name="Status_of_end_target" id="9"/>
-    <tableColumn name="End_target_text" id="10"/>
-    <tableColumn name="Interim_target" id="11"/>
-    <tableColumn name="Interim_target_year" id="12"/>
-    <tableColumn name="Interim_target_percentage_reduction" id="13"/>
-    <tableColumn name="Interim_target_baseline_year" id="14"/>
-    <tableColumn name="Interim_target_text" id="15"/>
-    <tableColumn name="GHGs_covered" id="16"/>
-    <tableColumn name="Scope_1_coverage" id="17"/>
-    <tableColumn name="Scope_2_coverage" id="18"/>
-    <tableColumn name="Scope_3_coverage" id="19"/>
-    <tableColumn name="Coverage_notes" id="20"/>
-    <tableColumn name="Published_plan" id="21"/>
-    <tableColumn name="Published_plan_measures" id="22"/>
-    <tableColumn name="Reporting_mechanism" id="23"/>
-    <tableColumn name="International_equity_just_transition" id="24"/>
-    <tableColumn name="Accountability_delivery" id="25"/>
-    <tableColumn name="Governance_notes" id="26"/>
-    <tableColumn name="Carbon_credits" id="27"/>
-    <tableColumn name="Carbon_credits_conditions" id="28"/>
-    <tableColumn name="Max_emission_offset" id="29"/>
-    <tableColumn name="Carbon_credits_conditions_other" id="30"/>
-    <tableColumn name="Separate_removal_target" id="31"/>
-    <tableColumn name="Planning_removals" id="32"/>
-    <tableColumn name="Removals_and_credits_notes" id="33"/>
-    <tableColumn name="Historical_emissions" id="34"/>
-    <tableColumn name="Race_to_zero_member" id="35"/>
-    <tableColumn name="Company_annual_revenue" id="36"/>
-    <tableColumn name="Industry" id="37"/>
-    <tableColumn name="Employees" id="38"/>
-    <tableColumn name="GHG_emissions" id="39"/>
-    <tableColumn name="GHG_emissions_year" id="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last_updated"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Country"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Geographic_region"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="End_target"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="End_target_percentage_reduction"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="End_target_baseline_year"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="End_target_year"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Status_of_end_target"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="End_target_text"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Interim_target"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Interim_target_year"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Interim_target_percentage_reduction"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Interim_target_baseline_year"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Interim_target_text"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="GHGs_covered"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Scope_1_coverage"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Scope_2_coverage"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Scope_3_coverage"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Coverage_notes"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Published_plan"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Published_plan_measures"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Reporting_mechanism"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="International_equity_just_transition"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Accountability_delivery"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Governance_notes"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Carbon_credits"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Carbon_credits_conditions"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Max_emission_offset"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Carbon_credits_conditions_other"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Separate_removal_target"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Planning_removals"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Removals_and_credits_notes"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Historical_emissions"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Race_to_zero_member"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Company_annual_revenue"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Industry"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Employees"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="GHG_emissions"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="GHG_emissions_year"/>
   </tableColumns>
-  <tableStyleInfo name="Data-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Data-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1333,23 +1299,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1471,1019 +1440,1340 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42">
+        <v>45539.477708333332</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43">
+        <v>2050</v>
+      </c>
+      <c r="I2" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6">
-        <v>2050.0</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="43">
+        <v>2030</v>
+      </c>
+      <c r="M2" s="43">
+        <v>10</v>
+      </c>
+      <c r="N2" s="43">
+        <v>2019</v>
+      </c>
+      <c r="O2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="6">
-        <v>2030.0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>2019.0</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AF2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="43">
+        <v>248111000000</v>
+      </c>
+      <c r="AK2" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AL2" s="43">
+        <v>67600</v>
+      </c>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="43"/>
+    </row>
+    <row r="3" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="42">
+        <v>45618.281041666669</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43">
+        <v>2050</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="43">
+        <v>2035</v>
+      </c>
+      <c r="M3" s="43">
+        <v>15</v>
+      </c>
+      <c r="N3" s="43">
+        <v>2018</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="U3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="W3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA3" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AG3" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="43">
+        <v>229700000000</v>
+      </c>
+      <c r="AK3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL3" s="43">
+        <v>69867</v>
+      </c>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+    </row>
+    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="42">
+        <v>45539.477870370371</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43">
+        <v>2050</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="43">
+        <v>2030</v>
+      </c>
+      <c r="M4" s="43">
+        <v>20</v>
+      </c>
+      <c r="N4" s="43">
+        <v>2016</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF4" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="6">
-        <v>2.48111E11</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL2" s="6">
-        <v>67600.0</v>
-      </c>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="AG4" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="43">
+        <v>393162000000</v>
+      </c>
+      <c r="AK4" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" s="43">
+        <v>62000</v>
+      </c>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+    </row>
+    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42">
+        <v>45539.477870370371</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43">
+        <v>2050</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="43">
+        <v>2025</v>
+      </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="U5" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="W5" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG5" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="43">
+        <v>457405000000</v>
+      </c>
+      <c r="AK5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL5" s="43">
+        <v>398440</v>
+      </c>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+    </row>
+    <row r="6" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42">
+        <v>45539.477881944447</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D6" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43">
+        <v>2050</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10">
-        <v>2050.0</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="L6" s="43">
+        <v>2028</v>
+      </c>
+      <c r="M6" s="43">
+        <v>5</v>
+      </c>
+      <c r="N6" s="43">
+        <v>2016</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="10">
-        <v>2030.0</v>
-      </c>
-      <c r="M3" s="10">
-        <v>20.0</v>
-      </c>
-      <c r="N3" s="10">
-        <v>2016.0</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="10" t="s">
+      <c r="Q6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="U6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="W6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>3.93162E11</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL3" s="10">
-        <v>62000.0</v>
-      </c>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="12"/>
+      <c r="Z6" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG6" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI6" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ6" s="43">
+        <v>94400000000</v>
+      </c>
+      <c r="AK6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL6" s="43">
+        <v>48200</v>
+      </c>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="AM2:AM3">
-      <formula1>AND(ISNUMBER(AM2),(NOT(OR(NOT(ISERROR(DATEVALUE(AM2))), AND(ISNUMBER(AM2), LEFT(CELL("format", AM2))="D")))))</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="15" t="s">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="15" t="s">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="15" t="s">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="17" t="s">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="15" t="s">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="14"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="s">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="14"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="15" t="s">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="14"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="15" t="s">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="14"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="15" t="s">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="14"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="14"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="14"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="20" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="C3" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17"/>
+      <c r="B4" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22" t="s">
+      <c r="C4" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="23" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22" t="s">
+      <c r="B5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="23" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="26" t="s">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="C8" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="23" t="s">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27" t="s">
+      <c r="C9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="23" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="29"/>
-      <c r="B9" s="27" t="s">
+      <c r="B10" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="23" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="30" t="s">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="23" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="32"/>
-      <c r="B11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="23" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="32"/>
-      <c r="B12" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="23" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="32"/>
-      <c r="B13" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="C15" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="32"/>
-      <c r="B14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="23" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="31" t="s">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C17" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="32"/>
-      <c r="B16" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="23" t="s">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="26" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31" t="s">
+      <c r="B18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="23" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="34" t="s">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="23" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="36"/>
-      <c r="B19" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="23" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28"/>
+      <c r="B22" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="36"/>
-      <c r="B20" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="23" t="s">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="29"/>
+      <c r="B23" s="27" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="36"/>
-      <c r="B21" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="C23" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="36"/>
-      <c r="B22" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="23" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="30" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="37"/>
-      <c r="B23" s="35" t="s">
+      <c r="B24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="23" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="38" t="s">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="23" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="32"/>
+      <c r="B27" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="23" t="s">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="40"/>
-      <c r="B26" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="23" t="s">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="40"/>
-      <c r="B27" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="23" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="40"/>
-      <c r="B28" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="23" t="s">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="40"/>
-      <c r="B29" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="23" t="s">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="32"/>
+      <c r="B32" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="40"/>
-      <c r="B30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="23" t="s">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="32"/>
+      <c r="B33" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="40"/>
-      <c r="B31" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="23" t="s">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="32"/>
+      <c r="B34" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="40"/>
-      <c r="B32" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="23" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="40"/>
-      <c r="B33" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="23" t="s">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="40"/>
-      <c r="B34" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="23" t="s">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="23" t="s">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="32"/>
+      <c r="B38" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="40"/>
-      <c r="B36" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="23" t="s">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="32"/>
+      <c r="B39" s="31" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="40"/>
-      <c r="B37" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="C39" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="40"/>
-      <c r="B38" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="23" t="s">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="32"/>
+      <c r="B40" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="40"/>
-      <c r="B39" s="39" t="s">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="32"/>
+      <c r="B41" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="23" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="32"/>
+      <c r="B42" s="31" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="40"/>
-      <c r="B40" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="23" t="s">
+      <c r="C42" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="40"/>
-      <c r="B41" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="23" t="s">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="32"/>
+      <c r="B43" s="31" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="40"/>
-      <c r="B42" s="39" t="s">
+      <c r="C43" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="23" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="32"/>
+      <c r="B44" s="31" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="40"/>
-      <c r="B43" s="39" t="s">
+      <c r="C44" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="23" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="32"/>
+      <c r="B45" s="31" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="40"/>
-      <c r="B44" s="39" t="s">
+      <c r="C45" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="23" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="33"/>
+      <c r="B46" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="40"/>
-      <c r="B45" s="39" t="s">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="B47" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="41"/>
-      <c r="B46" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="23" t="s">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="36"/>
+      <c r="B48" s="35" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="42" t="s">
+      <c r="C48" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="23" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="36"/>
+      <c r="B49" s="35" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="44"/>
-      <c r="B48" s="43" t="s">
+      <c r="C49" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C48" s="23" t="s">
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="36"/>
+      <c r="B50" s="35" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="44"/>
-      <c r="B49" s="43" t="s">
+      <c r="C50" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="23" t="s">
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="36"/>
+      <c r="B51" s="35" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="44"/>
-      <c r="B50" s="43" t="s">
+      <c r="C51" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="23" t="s">
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="36"/>
+      <c r="B52" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="44"/>
-      <c r="B51" s="43" t="s">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="36"/>
+      <c r="B53" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="23" t="s">
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="36"/>
+      <c r="B54" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="44"/>
-      <c r="B52" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="23" t="s">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="36"/>
+      <c r="B55" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="44"/>
-      <c r="B53" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="23" t="s">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="36"/>
+      <c r="B56" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="44"/>
-      <c r="B54" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="23" t="s">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="37"/>
+      <c r="B57" s="35" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="44"/>
-      <c r="B55" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="23" t="s">
+      <c r="C57" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="44"/>
-      <c r="B56" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="23" t="s">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="38" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="45"/>
-      <c r="B57" s="43" t="s">
+      <c r="B58" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C58" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="46" t="s">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="40"/>
+      <c r="B59" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="C59" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="23" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="40"/>
+      <c r="B60" s="39" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="48"/>
-      <c r="B59" s="47" t="s">
+      <c r="C60" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="23" t="s">
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="40"/>
+      <c r="B61" s="39" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="48"/>
-      <c r="B60" s="47" t="s">
+      <c r="C61" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C60" s="23" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="40"/>
+      <c r="B62" s="39" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="48"/>
-      <c r="B61" s="47" t="s">
+      <c r="C62" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="23" t="s">
+    </row>
+    <row r="63" spans="1:3" ht="90" x14ac:dyDescent="0.15">
+      <c r="A63" s="40"/>
+      <c r="B63" s="39" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="48"/>
-      <c r="B62" s="47" t="s">
+      <c r="C63" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C62" s="23" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="90" x14ac:dyDescent="0.15">
+      <c r="A64" s="40"/>
+      <c r="B64" s="39" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="48"/>
-      <c r="B63" s="47" t="s">
+      <c r="C64" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="23" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="75" x14ac:dyDescent="0.15">
+      <c r="A65" s="40"/>
+      <c r="B65" s="39" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="48"/>
-      <c r="B64" s="47" t="s">
+      <c r="C65" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="23" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="120" x14ac:dyDescent="0.15">
+      <c r="A66" s="40"/>
+      <c r="B66" s="39" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="48"/>
-      <c r="B65" s="47" t="s">
+      <c r="C66" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="23" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.15">
+      <c r="A67" s="41"/>
+      <c r="B67" s="39" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="48"/>
-      <c r="B66" s="47" t="s">
+      <c r="C67" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="49"/>
-      <c r="B67" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>194</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pathfinder Data.xlsx
+++ b/Pathfinder Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advait/Desktop/NTU/bc3412/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951A0EAD-A44F-8D45-9362-5ED4E7BFFFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA27C97-26D3-B74D-877E-AD87F19155F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,7 +1313,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Pathfinder Data.xlsx
+++ b/Pathfinder Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advait/Desktop/NTU/bc3412/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA27C97-26D3-B74D-877E-AD87F19155F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C938F6-8ED0-0941-A1E7-FD39FEE43F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="233">
   <si>
     <t>Last_updated</t>
   </si>
@@ -745,6 +745,40 @@
 ICE-31 liquid amine carbon capture technology for hard-to-abate emissions.
 CEO perspectives: AI and energy transition.
 https://www.chevron.com/newsroom/2024/q2/chevron-ceo-talks-ai-energy-transition</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>We’re partnering with our customers and suppliers to reduce their emissions and achieve carbon neutrality in our own operations by 2030 with our leading technologies.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80% reduction of scope 1 and 2 GHG emissions by 2030 (compared to 2019)
+25% reduction of scope 3 GHG emissions by 2030 (compared to 2022)
+</t>
+  </si>
+  <si>
+    <t>We have currently identified areas where we can reduce our scope 1 and 2 CO2 emissions by at least 80 percent and we continuously work on opportunities to do more.'</t>
+  </si>
+  <si>
+    <t>Information on the extent to which measures will be applied (e.g. if switching to EVs, what share of the fleet; if installing an own solar PV installation, what is the installed capacity)</t>
+  </si>
+  <si>
+    <t>No reporting mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'As part of our ambition to enable a low-carbon society, we are partnering with customers, suppliers and other leading organizations to reduce emissions across the value chain.
+To achieve carbon neutrality in our own operations, we have committed to three initiatives of the Climate Group of global companies. With our science-based emissions-reduction targets, we are part of the United Nations Global Com-pact’s “Business Ambition for 1.5°C”, as well as the UN-backed “Race to Zero”.'
+</t>
+  </si>
+  <si>
+    <t>No mention of sinks or credits.</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
   </si>
 </sst>
 </file>
@@ -762,6 +796,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -769,11 +804,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -781,12 +818,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1061,7 +1100,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AN6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AN7">
   <tableColumns count="40">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Last_updated"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -1309,11 +1348,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1985,6 +2024,118 @@
       </c>
       <c r="AM6" s="43"/>
       <c r="AN6" s="43"/>
+    </row>
+    <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42">
+        <v>45539.477511574078</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="43">
+        <v>100</v>
+      </c>
+      <c r="G7" s="43">
+        <v>2019</v>
+      </c>
+      <c r="H7" s="43">
+        <v>2050</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="43">
+        <v>2030</v>
+      </c>
+      <c r="M7" s="43">
+        <v>80</v>
+      </c>
+      <c r="N7" s="43">
+        <v>2019</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="W7" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z7" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF7" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG7" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI7" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" s="43">
+        <v>26000000000</v>
+      </c>
+      <c r="AK7" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL7" s="43">
+        <v>144400</v>
+      </c>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2746,7 +2897,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="75" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.15">
       <c r="A65" s="40"/>
       <c r="B65" s="39" t="s">
         <v>186</v>
@@ -2755,7 +2906,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="120" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="135" x14ac:dyDescent="0.15">
       <c r="A66" s="40"/>
       <c r="B66" s="39" t="s">
         <v>188</v>
